--- a/Dataset/Kaggle/results/ml6/apx_best.xlsx
+++ b/Dataset/Kaggle/results/ml6/apx_best.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,137 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.090347287462255</v>
+        <v>1.110132755692312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6663404818144413</v>
+        <v>0.7457314059560546</v>
       </c>
       <c r="E2" t="n">
-        <v>426.8393937962204</v>
+        <v>429.5032404972759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6479422889657258</v>
+        <v>0.6862523481534543</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4294687038935431</v>
+        <v>0.4653740749639801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9328879103932176</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.090347287462255</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6745700700730911</v>
-      </c>
-      <c r="E3" t="n">
-        <v>428.2393106576815</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.645001624692355</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4294687038935431</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9328879103932176</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.155738284446083</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6663404818144413</v>
-      </c>
-      <c r="E4" t="n">
-        <v>428.4167115532854</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3634411757257279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.278338918439081</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8734028002704486</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.155738284446083</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6966722833351132</v>
-      </c>
-      <c r="E5" t="n">
-        <v>428.4167115532854</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6013431311358923</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4168982949944696</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9328879103932176</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.110132755692312</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7457314059560546</v>
-      </c>
-      <c r="E6" t="n">
-        <v>428.4167115532854</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3584536437486411</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.278338918439081</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8734028002704486</v>
+        <v>0.9341002331377131</v>
       </c>
     </row>
   </sheetData>
